--- a/Git Basic.xlsx
+++ b/Git Basic.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>WebServer</t>
   </si>
@@ -88,6 +88,33 @@
   </si>
   <si>
     <t>Apk android</t>
+  </si>
+  <si>
+    <t>RBAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile </t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Trong</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vu </t>
+  </si>
+  <si>
+    <t>Duc</t>
+  </si>
+  <si>
+    <t>Nhan</t>
+  </si>
+  <si>
+    <t>Trang</t>
   </si>
 </sst>
 </file>
@@ -426,15 +453,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G21"/>
+  <dimension ref="C3:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
@@ -520,29 +547,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -552,12 +590,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -566,9 +637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Git Basic.xlsx
+++ b/Git Basic.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>WebServer</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Log4j</t>
   </si>
   <si>
-    <t>Command functions</t>
-  </si>
-  <si>
     <t>Model VO</t>
   </si>
   <si>
@@ -115,6 +112,15 @@
   </si>
   <si>
     <t>Trang</t>
+  </si>
+  <si>
+    <t>Mapper</t>
+  </si>
+  <si>
+    <t>Command functions (Design parten)</t>
+  </si>
+  <si>
+    <t>XML parxer</t>
   </si>
 </sst>
 </file>
@@ -453,15 +459,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G22"/>
+  <dimension ref="C3:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
@@ -482,7 +488,7 @@
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
@@ -515,16 +521,16 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
@@ -534,53 +540,63 @@
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="E22" t="s">
-        <v>26</v>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -596,36 +612,36 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -637,9 +653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
